--- a/biology/Zoologie/Hypothyris_ninonia/Hypothyris_ninonia.xlsx
+++ b/biology/Zoologie/Hypothyris_ninonia/Hypothyris_ninonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypothyris ninonia est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae, Tribu des  Ithomiini, sous-tribu des Napeogenina, et du genre  Hypothyris. C'est l'espèce type pour le genre.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Hypothyris ninonia a été décrit par l'entomologiste allemand Jacob Hübner en 1806 sous le nom initial de Nereis ninonia[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hypothyris ninonia a été décrit par l'entomologiste allemand Jacob Hübner en 1806 sous le nom initial de Nereis ninonia
 La localite type est l'État de Para au Brésil.</t>
         </is>
       </c>
@@ -542,17 +556,19 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sous-espèces
 Hypothyris ninonia ninonia; présent au Brésil.
 Hypothyris ninonia aetha Fox &amp; Real, 1971; présent en Bolivie
-Hypothyris ninonia antonina (Staudinger, [1884]); présent au Pérou.
+Hypothyris ninonia antonina (Staudinger, ); présent au Pérou.
 Hypothyris ninonia caquetacola Fox, 1971; présent en Colombie
 Hypothyris ninonia colophonia d'Almeida, 1945; présent au Brésil.
 Hypothyris ninonia completa (Haensch, 1909); présent au Brésil.
 Hypothyris ninonia completomaculata (Zikán, 1941); présent au Brésil.
-Hypothyris ninonia cornelie (Guérin-Méneville, [1844]); présent en Bolivie et au Brésil.
+Hypothyris ninonia cornelie (Guérin-Méneville, ); présent en Bolivie et au Brésil.
 Hypothyris ninonia daeta (Boisduval, 1836); présent au Brésil.
 Hypothyris ninonia daetina (Weymer, 1899); présent au Brésil.
 Hypothyris ninonia diphes Fox, 1971; présent en Colombie et en Équateur.
@@ -567,7 +583,7 @@
 Hypothyris ninonia mysotis (Haensch, 1909); présent au Venezuela
 Hypothyris ninonia neimyi (Riley, 1919); présent au Brésil.
 Hypothyris ninonia pellucida (Haensch, 1905); présent en Guyana
-Hypothyris ninonia vallina (Haensch, 1909); présent au Venezuela[2].</t>
+Hypothyris ninonia vallina (Haensch, 1909); présent au Venezuela.</t>
         </is>
       </c>
     </row>
@@ -595,7 +611,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypothyris ninonia est un papillon à corps fin, d'une envergure d'environ 55 mm, aux ailes à apex arrondi et aux ailes antérieures à bord interne concave. Les ailes antérieures sont orange à base et apex marron séparés par une bande crème dentelée.  Les ailes postérieures sont marron avec une base orange. Les ailes antérieures et postérieures sont ornées d'une ligne submarginale de gros points crème.
 Le revers est semblable.
@@ -624,12 +642,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypothyris ninonia est présent en Colombie, en Équateur, en Bolivie, au Pérou et au Brésil, au Venezuela, au Surinam, en Guyana et en Guyane.
+</t>
         </is>
       </c>
     </row>
@@ -659,10 +680,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hypothyris ninonia est présent en Colombie, en Équateur, en Bolivie, au Pérou et au Brésil, au Venezuela, au Surinam, en Guyana et en Guyane[2].
-Biotope
-Protection
-Pas de statut de protection particulier.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Hypothyris ninonia, sur Wikimedia CommonsHypothyris ninonia, sur Wikispecies
 </t>
